--- a/BioSTEAM 2.x.x/biorefineries/LAOs/results/Stream tables [target].xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/LAOs/results/Stream tables [target].xlsx
@@ -20,6 +20,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="162">
   <si>
+    <t>cell_recycle</t>
+  </si>
+  <si>
     <t>process_water</t>
   </si>
   <si>
@@ -29,9 +32,6 @@
     <t>CO2</t>
   </si>
   <si>
-    <t>cell_recycle</t>
-  </si>
-  <si>
     <t>s1</t>
   </si>
   <si>
@@ -233,15 +233,15 @@
     <t>C101</t>
   </si>
   <si>
+    <t>oil_fraction</t>
+  </si>
+  <si>
+    <t>aqueous_fraction</t>
+  </si>
+  <si>
     <t>cell_mass</t>
   </si>
   <si>
-    <t>oil_fraction</t>
-  </si>
-  <si>
-    <t>aqueous_fraction</t>
-  </si>
-  <si>
     <t>s12</t>
   </si>
   <si>
@@ -431,12 +431,24 @@
     <t>T110</t>
   </si>
   <si>
+    <t>s.16</t>
+  </si>
+  <si>
+    <t>s.12</t>
+  </si>
+  <si>
+    <t>CSL</t>
+  </si>
+  <si>
+    <t>evaporation_and_blowdown</t>
+  </si>
+  <si>
+    <t>s.13</t>
+  </si>
+  <si>
     <t>DAP</t>
   </si>
   <si>
-    <t>s.13</t>
-  </si>
-  <si>
     <t>s.18</t>
   </si>
   <si>
@@ -473,6 +485,9 @@
     <t>decene</t>
   </si>
   <si>
+    <t>s.15</t>
+  </si>
+  <si>
     <t>ash_disposal</t>
   </si>
   <si>
@@ -482,28 +497,13 @@
     <t>cooling_tower_makeup_water</t>
   </si>
   <si>
-    <t>s.15</t>
-  </si>
-  <si>
-    <t>s.16</t>
-  </si>
-  <si>
-    <t>CSL</t>
-  </si>
-  <si>
-    <t>s.12</t>
-  </si>
-  <si>
-    <t>evaporation_and_blowdown</t>
+    <t>CT</t>
   </si>
   <si>
     <t>BT</t>
   </si>
   <si>
     <t>CWP</t>
-  </si>
-  <si>
-    <t>CT</t>
   </si>
 </sst>
 </file>
@@ -922,13 +922,13 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
@@ -972,13 +972,13 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -1025,10 +1025,10 @@
         <v>57</v>
       </c>
       <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
         <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
       </c>
       <c r="F4" t="s">
         <v>57</v>
@@ -1069,7 +1069,7 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>310.15</v>
+        <v>298.15</v>
       </c>
       <c r="C5">
         <v>310.15</v>
@@ -1078,19 +1078,19 @@
         <v>310.15</v>
       </c>
       <c r="E5">
-        <v>298.15</v>
+        <v>310.15</v>
       </c>
       <c r="F5">
-        <v>311.6337085743416</v>
+        <v>311.633708505287</v>
       </c>
       <c r="G5">
         <v>298.15</v>
       </c>
       <c r="H5">
-        <v>311.6337085743416</v>
+        <v>311.633708505287</v>
       </c>
       <c r="I5">
-        <v>311.6337085743416</v>
+        <v>311.633708505287</v>
       </c>
       <c r="J5">
         <v>298.15</v>
@@ -1102,7 +1102,7 @@
         <v>298.15</v>
       </c>
       <c r="M5">
-        <v>309.6109590305444</v>
+        <v>309.6109600992169</v>
       </c>
       <c r="N5">
         <v>310.15</v>
@@ -1119,49 +1119,49 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>369.6235384498148</v>
+        <v>1.848545244650277</v>
       </c>
       <c r="C6">
-        <v>522.968482453973</v>
+        <v>369.6242687681961</v>
       </c>
       <c r="D6">
+        <v>522.9693725258527</v>
+      </c>
+      <c r="E6">
         <v>34.96110934797288</v>
       </c>
-      <c r="E6">
-        <v>1.848541592232669</v>
-      </c>
       <c r="F6">
-        <v>74.74329759884019</v>
+        <v>74.74344386071584</v>
       </c>
       <c r="G6">
         <v>71.59173361848406</v>
       </c>
       <c r="H6">
-        <v>74.74329759884019</v>
+        <v>74.74344386071584</v>
       </c>
       <c r="I6">
-        <v>74.74329759884019</v>
+        <v>74.74344386071584</v>
       </c>
       <c r="J6">
-        <v>1.307421193141559</v>
+        <v>1.307423418309443</v>
       </c>
       <c r="K6">
-        <v>3.697083184465339</v>
+        <v>3.697090489300553</v>
       </c>
       <c r="L6">
-        <v>0.156866816994251</v>
+        <v>0.1568671261964328</v>
       </c>
       <c r="M6">
-        <v>522.9684772566235</v>
+        <v>522.9693673237774</v>
       </c>
       <c r="N6">
-        <v>488.0073349568048</v>
+        <v>488.0082250286845</v>
       </c>
       <c r="O6">
-        <v>488.0073349568048</v>
+        <v>488.0082250286845</v>
       </c>
       <c r="P6">
-        <v>488.0073349568048</v>
+        <v>488.0082250286845</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1274,28 +1274,28 @@
         <v>23</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>100</v>
       </c>
-      <c r="C10">
-        <v>70.69418728863307</v>
-      </c>
       <c r="D10">
-        <v>0</v>
+        <v>70.69420665008043</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1134282262659057</v>
+        <v>0.1134282252462147</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.1134282262659057</v>
+        <v>0.1134282252462147</v>
       </c>
       <c r="I10">
-        <v>0.1134282262659057</v>
+        <v>0.1134282252462147</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>70.69418799120392</v>
+        <v>70.69420735328909</v>
       </c>
       <c r="N10">
-        <v>77.55389448073211</v>
+        <v>77.55390271791191</v>
       </c>
       <c r="O10">
-        <v>77.55389448073211</v>
+        <v>77.55390271791191</v>
       </c>
       <c r="P10">
-        <v>77.55389448073211</v>
+        <v>77.55390271791191</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1477,25 +1477,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>14.13883745772661</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>14.13884133001608</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>98.927483887805</v>
+        <v>98.92748576557612</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>98.927483887805</v>
+        <v>98.92748576557612</v>
       </c>
       <c r="I14">
-        <v>98.927483887805</v>
+        <v>98.92748576557612</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1507,16 +1507,16 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.13883759824078</v>
+        <v>14.13884147065782</v>
       </c>
       <c r="N14">
-        <v>15.15175252352541</v>
+        <v>15.15175482578492</v>
       </c>
       <c r="O14">
-        <v>15.15175252352541</v>
+        <v>15.15175482578492</v>
       </c>
       <c r="P14">
-        <v>15.15175252352541</v>
+        <v>15.15175482578492</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1627,25 +1627,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.09702289238223498</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.09702272725335225</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6788557157962471</v>
+        <v>0.678854387375918</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.6788557157962471</v>
+        <v>0.678854387375918</v>
       </c>
       <c r="I17">
-        <v>0.6788557157962471</v>
+        <v>0.678854387375918</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.09702289334646497</v>
+        <v>0.09702272821845567</v>
       </c>
       <c r="N17">
-        <v>0.94538958046662</v>
+        <v>0.9453878561828112</v>
       </c>
       <c r="O17">
-        <v>0.94538958046662</v>
+        <v>0.9453878561828112</v>
       </c>
       <c r="P17">
-        <v>0.94538958046662</v>
+        <v>0.9453878561828112</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1677,25 +1677,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0273317181704755</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02733167165304055</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.1912362396851895</v>
+        <v>0.1912358654641252</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1912362396851895</v>
+        <v>0.1912358654641252</v>
       </c>
       <c r="I18">
-        <v>0.1912362396851895</v>
+        <v>0.1912358654641252</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1707,16 +1707,16 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02733171844210276</v>
+        <v>0.02733167192491386</v>
       </c>
       <c r="N18">
-        <v>0.8707056874034446</v>
+        <v>0.8707040993346208</v>
       </c>
       <c r="O18">
-        <v>0.8707056874034446</v>
+        <v>0.8707040993346208</v>
       </c>
       <c r="P18">
-        <v>0.8707056874034446</v>
+        <v>0.8707040993346208</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1727,25 +1727,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.007480319042504145</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.007480306311315704</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.05233875442486034</v>
+        <v>0.05233865200565142</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.05233875442486034</v>
+        <v>0.05233865200565142</v>
       </c>
       <c r="I19">
-        <v>0.05233875442486034</v>
+        <v>0.05233865200565142</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1757,16 +1757,16 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.007480319116844827</v>
+        <v>0.007480306385723727</v>
       </c>
       <c r="N19">
-        <v>2.532263937812236</v>
+        <v>2.532259319248844</v>
       </c>
       <c r="O19">
-        <v>2.532263937812236</v>
+        <v>2.532259319248844</v>
       </c>
       <c r="P19">
-        <v>2.532263937812236</v>
+        <v>2.532259319248844</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1927,25 +1927,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.002476063529636433</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.002476059315475893</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.01732467295600946</v>
+        <v>0.0173246390541526</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.01732467295600946</v>
+        <v>0.0173246390541526</v>
       </c>
       <c r="I23">
-        <v>0.01732467295600946</v>
+        <v>0.0173246390541526</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1957,16 +1957,16 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.002476063554243972</v>
+        <v>0.002476059340105724</v>
       </c>
       <c r="N23">
-        <v>0.002653450253300413</v>
+        <v>0.002653445413702007</v>
       </c>
       <c r="O23">
-        <v>0.002653450253300413</v>
+        <v>0.002653445413702007</v>
       </c>
       <c r="P23">
-        <v>0.002653450253300413</v>
+        <v>0.002653445413702007</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1977,25 +1977,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0006740262160984106</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.0006740250719528829</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.004716067910986165</v>
+        <v>0.004716058703459853</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.004716067910986165</v>
+        <v>0.004716058703459853</v>
       </c>
       <c r="I24">
-        <v>0.004716067910986165</v>
+        <v>0.004716058703459853</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.0006740262227969976</v>
+        <v>0.0006740250786575378</v>
       </c>
       <c r="N24">
-        <v>0.0007223138713650277</v>
+        <v>0.0007223125571811268</v>
       </c>
       <c r="O24">
-        <v>0.0007223138713650277</v>
+        <v>0.0007223125571811268</v>
       </c>
       <c r="P24">
-        <v>0.0007223138713650277</v>
+        <v>0.0007223125571811268</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2027,25 +2027,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.002088998858132131</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.002088995305705531</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.01461643515581785</v>
+        <v>0.0146164065743359</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.01461643515581785</v>
+        <v>0.0146164065743359</v>
       </c>
       <c r="I25">
-        <v>0.01461643515581785</v>
+        <v>0.0146164065743359</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2057,16 +2057,16 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.002088998878892957</v>
+        <v>0.002088995326485162</v>
       </c>
       <c r="N25">
-        <v>0.002238656029180673</v>
+        <v>0.00223865194929872</v>
       </c>
       <c r="O25">
-        <v>0.002238656029180673</v>
+        <v>0.00223865194929872</v>
       </c>
       <c r="P25">
-        <v>0.002238656029180673</v>
+        <v>0.00223865194929872</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2421,7 +2421,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2430,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
         <v>100</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2477,10 +2477,10 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>13.68949296572283</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>13.68946966678148</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2507,16 +2507,16 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>13.68949310177133</v>
+        <v>13.68946980295323</v>
       </c>
       <c r="N34">
-        <v>0.002934043342804118</v>
+        <v>0.002934037991440474</v>
       </c>
       <c r="O34">
-        <v>0.002934043342804118</v>
+        <v>0.002934037991440474</v>
       </c>
       <c r="P34">
-        <v>0.002934043342804118</v>
+        <v>0.002934037991440474</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0.7069418728863307</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.7069420665008044</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0.7069418799120392</v>
+        <v>0.706942073532891</v>
       </c>
       <c r="N35">
-        <v>0.7575876261762706</v>
+        <v>0.7575877412892462</v>
       </c>
       <c r="O35">
-        <v>0.7575876261762706</v>
+        <v>0.7575877412892462</v>
       </c>
       <c r="P35">
-        <v>0.7575876261762706</v>
+        <v>0.7575877412892462</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2577,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0.02999546287343558</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.02999547094675763</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2607,16 +2607,16 @@
         <v>100</v>
       </c>
       <c r="M36">
-        <v>0.02999546287022734</v>
+        <v>0.02999547094624391</v>
       </c>
       <c r="N36">
-        <v>0.03214435639745779</v>
+        <v>0.03214436112981751</v>
       </c>
       <c r="O36">
-        <v>0.03214435639745779</v>
+        <v>0.03214436112981751</v>
       </c>
       <c r="P36">
-        <v>0.03214435639745779</v>
+        <v>0.03214436112981751</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2627,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0.2499999975154575</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>0.2499999975132026</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2657,16 +2657,16 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0.2499990064843401</v>
+        <v>0.249999005579949</v>
       </c>
       <c r="N37">
-        <v>0.2679101520589405</v>
+        <v>0.2679101193904251</v>
       </c>
       <c r="O37">
-        <v>0.2679101520589405</v>
+        <v>0.2679101193904251</v>
       </c>
       <c r="P37">
-        <v>0.2679101520589405</v>
+        <v>0.2679101193904251</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2724,16 +2724,16 @@
         <v>51</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C39">
-        <v>0.3534709364431653</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>0.3534710332504022</v>
       </c>
       <c r="E39">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2757,16 +2757,16 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0.3534709399560195</v>
+        <v>0.3534710367664455</v>
       </c>
       <c r="N39">
-        <v>1.879803191930857</v>
+        <v>1.879800511815783</v>
       </c>
       <c r="O39">
-        <v>1.879803191930857</v>
+        <v>1.879800511815783</v>
       </c>
       <c r="P39">
-        <v>1.879803191930857</v>
+        <v>1.879800511815783</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2954,10 +2954,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
         <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
       </c>
       <c r="D2" t="s">
         <v>70</v>
@@ -2974,13 +2974,13 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
         <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
       </c>
       <c r="E3" t="s">
         <v>70</v>
@@ -3034,19 +3034,19 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>16.67549938623557</v>
+        <v>93.39581674222488</v>
       </c>
       <c r="C6">
-        <v>93.3956708500247</v>
+        <v>377.936902247313</v>
       </c>
       <c r="D6">
-        <v>377.9361647205444</v>
+        <v>16.6755060391467</v>
       </c>
       <c r="E6">
-        <v>488.0073349568048</v>
+        <v>488.0082250286845</v>
       </c>
       <c r="F6">
-        <v>93.3956708500247</v>
+        <v>93.39581674222488</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3099,19 +3099,19 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>45.00000000000001</v>
+        <v>0.1620926663723028</v>
       </c>
       <c r="C10">
-        <v>0.1620926067198041</v>
+        <v>98.11533523240053</v>
       </c>
       <c r="D10">
-        <v>98.11533428762283</v>
+        <v>45</v>
       </c>
       <c r="E10">
-        <v>77.55389448073211</v>
+        <v>77.55390271791191</v>
       </c>
       <c r="F10">
-        <v>0.1620926067198041</v>
+        <v>0.1620926663723028</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3179,19 +3179,19 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>0.001507610960971628</v>
+        <v>78.90118658753876</v>
       </c>
       <c r="C14">
-        <v>78.90115394223716</v>
+        <v>0.06645309035073022</v>
       </c>
       <c r="D14">
-        <v>0.06645308873068743</v>
+        <v>0.001507613338283404</v>
       </c>
       <c r="E14">
-        <v>15.15175252352541</v>
+        <v>15.15175482578492</v>
       </c>
       <c r="F14">
-        <v>78.90115394223716</v>
+        <v>78.90118658753876</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3239,19 +3239,19 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>0.008905930242062859</v>
+        <v>3.349681241479322</v>
       </c>
       <c r="C17">
-        <v>3.349686473974166</v>
+        <v>0.3925584471082049</v>
       </c>
       <c r="D17">
-        <v>0.3925592131697518</v>
+        <v>0.008905926688925562</v>
       </c>
       <c r="E17">
-        <v>0.94538958046662</v>
+        <v>0.9453878561828112</v>
       </c>
       <c r="F17">
-        <v>3.349686473974166</v>
+        <v>3.349681241479322</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3259,19 +3259,19 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>0.0009988607529064501</v>
+        <v>4.371226404028939</v>
       </c>
       <c r="C18">
-        <v>4.371233232266605</v>
+        <v>0.04402810435077747</v>
       </c>
       <c r="D18">
-        <v>0.04402819026979915</v>
+        <v>0.0009988603543978946</v>
       </c>
       <c r="E18">
-        <v>0.8707056874034446</v>
+        <v>0.8707040993346208</v>
       </c>
       <c r="F18">
-        <v>4.371233232266605</v>
+        <v>4.371226404028939</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3279,19 +3279,19 @@
         <v>32</v>
       </c>
       <c r="B19">
-        <v>0.000251962197956397</v>
+        <v>13.18647690207306</v>
       </c>
       <c r="C19">
-        <v>13.18649750050241</v>
+        <v>0.01110607050261637</v>
       </c>
       <c r="D19">
-        <v>0.01110609217565286</v>
+        <v>0.0002519620974327842</v>
       </c>
       <c r="E19">
-        <v>2.532263937812236</v>
+        <v>2.532259319248844</v>
       </c>
       <c r="F19">
-        <v>13.18649750050241</v>
+        <v>13.18647690207306</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3359,19 +3359,19 @@
         <v>36</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.01386468079320073</v>
       </c>
       <c r="C23">
-        <v>0.01386470245106924</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.002653450253300413</v>
+        <v>0.002653445413702007</v>
       </c>
       <c r="F23">
-        <v>0.01386470245106924</v>
+        <v>0.01386468079320073</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3379,19 +3379,19 @@
         <v>37</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.00377419975799116</v>
       </c>
       <c r="C24">
-        <v>0.003774205636717543</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0007223138713650277</v>
+        <v>0.0007223125571811268</v>
       </c>
       <c r="F24">
-        <v>0.003774205636717543</v>
+        <v>0.00377419975799116</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3399,19 +3399,19 @@
         <v>38</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.01169731795643001</v>
       </c>
       <c r="C25">
-        <v>0.01169733621207941</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.002238656029180673</v>
+        <v>0.00223865194929872</v>
       </c>
       <c r="F25">
-        <v>0.01169733621207941</v>
+        <v>0.01169731795643001</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3556,7 +3556,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3579,16 +3579,16 @@
         <v>46</v>
       </c>
       <c r="B34">
-        <v>8.586457527931486e-05</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.003784766264399345</v>
       </c>
       <c r="D34">
-        <v>0.003784773650213917</v>
+        <v>8.586454102252004e-05</v>
       </c>
       <c r="E34">
-        <v>0.002934043342804118</v>
+        <v>0.002934037991440474</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3599,16 +3599,16 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>0.02217074942605327</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.9772513286872374</v>
       </c>
       <c r="D35">
-        <v>0.9772513048630467</v>
+        <v>0.0221707843865213</v>
       </c>
       <c r="E35">
-        <v>0.7575876261762706</v>
+        <v>0.7575877412892462</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -3619,16 +3619,16 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <v>0.000940702364354577</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>0.04146466199473926</v>
       </c>
       <c r="D36">
-        <v>0.04146466117978735</v>
+        <v>0.0009407038432787485</v>
       </c>
       <c r="E36">
-        <v>0.03214435639745779</v>
+        <v>0.03214436112981751</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>49</v>
       </c>
       <c r="B37">
-        <v>0.007840372050391132</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.3455910198566538</v>
       </c>
       <c r="D37">
-        <v>0.3455911060837988</v>
+        <v>0.007840382266302397</v>
       </c>
       <c r="E37">
-        <v>0.2679101520589405</v>
+        <v>0.2679101193904251</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -3679,16 +3679,16 @@
         <v>51</v>
       </c>
       <c r="B39">
-        <v>54.95729794743004</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>0.002427278484118337</v>
       </c>
       <c r="D39">
-        <v>0.00242728225444047</v>
+        <v>54.95729790248384</v>
       </c>
       <c r="E39">
-        <v>1.879803191930857</v>
+        <v>1.879800511815783</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -3769,7 +3769,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>78</v>
@@ -3891,19 +3891,19 @@
         <v>320</v>
       </c>
       <c r="D5">
-        <v>605.7729522609277</v>
+        <v>595.1799193000927</v>
       </c>
       <c r="E5">
-        <v>326.1363230576839</v>
+        <v>338.4880990840415</v>
       </c>
       <c r="F5">
-        <v>601.0029490227872</v>
+        <v>590.5382543315569</v>
       </c>
       <c r="G5">
         <v>623.15</v>
       </c>
       <c r="H5">
-        <v>615.7729522502755</v>
+        <v>605.1799192683608</v>
       </c>
       <c r="I5">
         <v>320</v>
@@ -3914,28 +3914,28 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>93.3956708500247</v>
+        <v>93.39581674222488</v>
       </c>
       <c r="C6">
-        <v>4.237441938231743</v>
+        <v>4.237296046031567</v>
       </c>
       <c r="D6">
-        <v>93.3956708500247</v>
+        <v>93.39581674222488</v>
       </c>
       <c r="E6">
-        <v>97.63311284348855</v>
+        <v>97.63311284348853</v>
       </c>
       <c r="F6">
-        <v>97.63311278825645</v>
+        <v>97.63311278825644</v>
       </c>
       <c r="G6">
-        <v>97.63311278825645</v>
+        <v>97.63311278825644</v>
       </c>
       <c r="H6">
-        <v>97.63311278825645</v>
+        <v>97.63311278825644</v>
       </c>
       <c r="I6">
-        <v>97.63311284348855</v>
+        <v>97.63311284348853</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4006,28 +4006,28 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>0.1620926067198041</v>
+        <v>0.1620926663723028</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1620926067198041</v>
+        <v>0.1620926663723028</v>
       </c>
       <c r="E10">
-        <v>2.73421564285575</v>
+        <v>2.734215942132707</v>
       </c>
       <c r="F10">
-        <v>0.1550575139118811</v>
+        <v>0.1550578131888377</v>
       </c>
       <c r="G10">
-        <v>0.1550575139118811</v>
+        <v>0.1550578131888377</v>
       </c>
       <c r="H10">
-        <v>2.734215642424416</v>
+        <v>2.734215941701373</v>
       </c>
       <c r="I10">
-        <v>2.73421564285575</v>
+        <v>2.734215942132707</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4122,28 +4122,28 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>78.90115394223716</v>
+        <v>78.90118658753876</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>78.90115394223716</v>
+        <v>78.90118658753876</v>
       </c>
       <c r="E14">
-        <v>75.47671060216302</v>
+        <v>75.47685973187043</v>
       </c>
       <c r="F14">
-        <v>75.47671064486099</v>
+        <v>75.4768597745685</v>
       </c>
       <c r="G14">
-        <v>75.47671064486099</v>
+        <v>75.4768597745685</v>
       </c>
       <c r="H14">
-        <v>75.47671064486099</v>
+        <v>75.4768597745685</v>
       </c>
       <c r="I14">
-        <v>75.47671060216302</v>
+        <v>75.47685973187043</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4209,22 +4209,22 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>3.349686473974166</v>
+        <v>3.349681241479322</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.349686473974166</v>
+        <v>3.349681241479322</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.204304425411098</v>
+        <v>3.204304425411099</v>
       </c>
       <c r="G17">
-        <v>3.204304425411098</v>
+        <v>3.204304425411099</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -4238,22 +4238,22 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>4.371233232266605</v>
+        <v>4.371226404028939</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.371233232266605</v>
+        <v>4.371226404028939</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.181514329619604</v>
+        <v>4.181514329619605</v>
       </c>
       <c r="G18">
-        <v>4.181514329619604</v>
+        <v>4.181514329619605</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -4267,13 +4267,13 @@
         <v>32</v>
       </c>
       <c r="B19">
-        <v>13.18649750050241</v>
+        <v>13.18647690207306</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>13.18649750050241</v>
+        <v>13.18647690207306</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4383,28 +4383,28 @@
         <v>36</v>
       </c>
       <c r="B23">
-        <v>0.01386470245106924</v>
+        <v>0.01386468079320073</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01386470245106924</v>
+        <v>0.01386468079320073</v>
       </c>
       <c r="E23">
-        <v>2.652589876092907</v>
+        <v>2.652589876087975</v>
       </c>
       <c r="F23">
-        <v>0.01326295095560394</v>
+        <v>0.01326295095557964</v>
       </c>
       <c r="G23">
-        <v>0.01326295095560394</v>
+        <v>0.01326295095557964</v>
       </c>
       <c r="H23">
-        <v>2.652589866960073</v>
+        <v>2.652589866960049</v>
       </c>
       <c r="I23">
-        <v>2.652589876092907</v>
+        <v>2.652589876087975</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4412,28 +4412,28 @@
         <v>37</v>
       </c>
       <c r="B24">
-        <v>0.003774205636717543</v>
+        <v>0.00377419975799116</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.003774205636717543</v>
+        <v>0.00377419975799116</v>
       </c>
       <c r="E24">
-        <v>3.606668769572609</v>
+        <v>3.606668785417384</v>
       </c>
       <c r="F24">
-        <v>0.003610398739735545</v>
+        <v>0.003610398755905392</v>
       </c>
       <c r="G24">
-        <v>0.003610398739735545</v>
+        <v>0.003610398755905392</v>
       </c>
       <c r="H24">
-        <v>3.606668499678811</v>
+        <v>3.606668499694981</v>
       </c>
       <c r="I24">
-        <v>3.606668769572609</v>
+        <v>3.606668785417384</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4441,28 +4441,28 @@
         <v>38</v>
       </c>
       <c r="B25">
-        <v>0.01169733621207941</v>
+        <v>0.01169731795643001</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01169733621207941</v>
+        <v>0.01169731795643001</v>
       </c>
       <c r="E25">
-        <v>11.18964655014012</v>
+        <v>11.18964656599387</v>
       </c>
       <c r="F25">
-        <v>0.01118965207075575</v>
+        <v>0.01118965208661953</v>
       </c>
       <c r="G25">
-        <v>0.01118965207075575</v>
+        <v>0.01118965208661953</v>
       </c>
       <c r="H25">
-        <v>11.18964650661468</v>
+        <v>11.18964650663054</v>
       </c>
       <c r="I25">
-        <v>11.18964655014012</v>
+        <v>11.18964656599387</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4624,19 +4624,19 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>4.3401685591756</v>
+        <v>4.34001909849764</v>
       </c>
       <c r="F31">
-        <v>4.340168839461024</v>
+        <v>4.340019410444568</v>
       </c>
       <c r="G31">
-        <v>4.340168839461024</v>
+        <v>4.340019410444568</v>
       </c>
       <c r="H31">
-        <v>4.340168839461024</v>
+        <v>4.340019410444568</v>
       </c>
       <c r="I31">
-        <v>4.3401685591756</v>
+        <v>4.34001909849764</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4670,7 +4670,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4982,7 +4982,7 @@
         <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>93</v>
@@ -5329,13 +5329,13 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>311.6337666633658</v>
+        <v>311.6337665942946</v>
       </c>
       <c r="C5">
         <v>320</v>
       </c>
       <c r="D5">
-        <v>311.6337666633658</v>
+        <v>311.6337665942946</v>
       </c>
       <c r="E5">
         <v>310.15</v>
@@ -5353,34 +5353,34 @@
         <v>320</v>
       </c>
       <c r="J5">
-        <v>468.0267689675483</v>
+        <v>468.0268200361099</v>
       </c>
       <c r="K5">
         <v>325</v>
       </c>
       <c r="L5">
-        <v>456.50279035084</v>
+        <v>456.5028239380373</v>
       </c>
       <c r="M5">
-        <v>503.2125630604315</v>
+        <v>503.2125631108406</v>
       </c>
       <c r="N5">
-        <v>425.9646053040979</v>
+        <v>425.9646049415293</v>
       </c>
       <c r="O5">
-        <v>503.238106600296</v>
+        <v>503.2381066002962</v>
       </c>
       <c r="P5">
-        <v>503.215025393007</v>
+        <v>503.2150254387391</v>
       </c>
       <c r="Q5">
-        <v>503.215025393007</v>
+        <v>503.2150254387391</v>
       </c>
       <c r="R5">
         <v>320</v>
       </c>
       <c r="S5">
-        <v>311.6337666633658</v>
+        <v>311.6337665942946</v>
       </c>
       <c r="T5">
         <v>320</v>
@@ -5389,10 +5389,10 @@
         <v>320</v>
       </c>
       <c r="V5">
-        <v>340.0535566246093</v>
+        <v>340.053556609609</v>
       </c>
       <c r="W5">
-        <v>423.1318160754914</v>
+        <v>423.1318160388734</v>
       </c>
       <c r="X5">
         <v>320</v>
@@ -5401,13 +5401,13 @@
         <v>396.7113970471377</v>
       </c>
       <c r="Z5">
-        <v>443.7133092711063</v>
+        <v>443.7133092711062</v>
       </c>
       <c r="AA5">
         <v>320</v>
       </c>
       <c r="AB5">
-        <v>387.7893675274642</v>
+        <v>389.0819424250851</v>
       </c>
       <c r="AC5">
         <v>325</v>
@@ -5418,88 +5418,88 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>379.5776836255696</v>
+        <v>379.5784207830133</v>
       </c>
       <c r="C6">
-        <v>93.39567117651102</v>
+        <v>93.39581709962337</v>
       </c>
       <c r="D6">
-        <v>74.74297225409465</v>
+        <v>74.74311851532745</v>
       </c>
       <c r="E6">
-        <v>377.9361647205444</v>
+        <v>377.936902247313</v>
       </c>
       <c r="F6">
-        <v>93.39567117651102</v>
+        <v>93.39581709962337</v>
       </c>
       <c r="G6">
-        <v>90.99312131693472</v>
+        <v>90.99326697707301</v>
       </c>
       <c r="H6">
-        <v>2.402549859576303</v>
+        <v>2.40255012255037</v>
       </c>
       <c r="I6">
-        <v>90.99312131693472</v>
+        <v>90.99326697707301</v>
       </c>
       <c r="J6">
-        <v>90.99312131693472</v>
+        <v>90.99326697707301</v>
       </c>
       <c r="K6">
-        <v>73.40843761339997</v>
+        <v>73.40858321297651</v>
       </c>
       <c r="L6">
-        <v>24.66095704033463</v>
+        <v>24.66097166047916</v>
       </c>
       <c r="M6">
-        <v>66.33216427660011</v>
+        <v>66.33229531659386</v>
       </c>
       <c r="N6">
-        <v>17.58468370353475</v>
+        <v>17.58468376409651</v>
       </c>
       <c r="O6">
-        <v>7.076273336799872</v>
+        <v>7.076287896382654</v>
       </c>
       <c r="P6">
-        <v>73.40843761339997</v>
+        <v>73.40858321297651</v>
       </c>
       <c r="Q6">
-        <v>73.40843761339997</v>
+        <v>73.40858321297651</v>
       </c>
       <c r="R6">
-        <v>0.5735036861436</v>
+        <v>0.5735037155009723</v>
       </c>
       <c r="S6">
-        <v>74.74297225409465</v>
+        <v>74.74311851532745</v>
       </c>
       <c r="T6">
-        <v>17.58468370353475</v>
+        <v>17.58468376409651</v>
       </c>
       <c r="U6">
-        <v>17.01118001739115</v>
+        <v>17.01118004859553</v>
       </c>
       <c r="V6">
-        <v>2.649642445924948</v>
+        <v>2.649642446212206</v>
       </c>
       <c r="W6">
-        <v>14.36153757146621</v>
+        <v>14.36153760238333</v>
       </c>
       <c r="X6">
-        <v>2.649642445924948</v>
+        <v>2.649642446212206</v>
       </c>
       <c r="Y6">
-        <v>3.535603759513668</v>
+        <v>3.535603775361993</v>
       </c>
       <c r="Z6">
-        <v>10.82593381195254</v>
+        <v>10.82593382702133</v>
       </c>
       <c r="AA6">
-        <v>3.535603759513668</v>
+        <v>3.535603775361993</v>
       </c>
       <c r="AB6">
-        <v>17.01118001739115</v>
+        <v>17.01118004859553</v>
       </c>
       <c r="AC6">
-        <v>10.82593381195254</v>
+        <v>10.82593382702133</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -5690,73 +5690,73 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>98.37126835020328</v>
+        <v>98.37126892272055</v>
       </c>
       <c r="C10">
-        <v>2.858269350544641</v>
+        <v>2.858265197593998</v>
       </c>
       <c r="D10">
-        <v>0.1134287200003648</v>
+        <v>0.1134287189806776</v>
       </c>
       <c r="E10">
-        <v>98.11533428762283</v>
+        <v>98.11533523240053</v>
       </c>
       <c r="F10">
-        <v>2.858269350544641</v>
+        <v>2.858265197593998</v>
       </c>
       <c r="G10">
-        <v>0.2933738073096356</v>
+        <v>0.2933733697944592</v>
       </c>
       <c r="H10">
         <v>100</v>
       </c>
       <c r="I10">
-        <v>0.2933738073096356</v>
+        <v>0.2933733697944592</v>
       </c>
       <c r="J10">
-        <v>0.2933738073096356</v>
+        <v>0.2933733697944592</v>
       </c>
       <c r="K10">
-        <v>7.272972360617992e-12</v>
+        <v>7.272957935306271e-12</v>
       </c>
       <c r="L10">
-        <v>1.082480229611865</v>
+        <v>1.082479706352542</v>
       </c>
       <c r="M10">
-        <v>4.024424226323264e-12</v>
+        <v>4.024416276040179e-12</v>
       </c>
       <c r="N10">
-        <v>1.518082377213118</v>
+        <v>1.518082538148418</v>
       </c>
       <c r="O10">
-        <v>3.772448521892842e-11</v>
+        <v>3.772440760015803e-11</v>
       </c>
       <c r="P10">
-        <v>7.272972360617992e-12</v>
+        <v>7.272957935306271e-12</v>
       </c>
       <c r="Q10">
-        <v>7.272972360617992e-12</v>
+        <v>7.272957935306271e-12</v>
       </c>
       <c r="R10">
-        <v>46.08174122213651</v>
+        <v>46.08174390716866</v>
       </c>
       <c r="S10">
-        <v>0.1134287200003648</v>
+        <v>0.1134287189806776</v>
       </c>
       <c r="T10">
-        <v>1.518082377213118</v>
+        <v>1.518082538148418</v>
       </c>
       <c r="U10">
-        <v>0.0156926200368884</v>
+        <v>0.01569262172575786</v>
       </c>
       <c r="V10">
-        <v>0.1007494368919804</v>
+        <v>0.100749447908712</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.1007494368919804</v>
+        <v>0.100749447908712</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.0156926200368884</v>
+        <v>0.01569262172575786</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -6046,61 +6046,61 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>1.947991556822263e-05</v>
+        <v>1.947991622674121e-05</v>
       </c>
       <c r="C14">
-        <v>78.9011536664198</v>
+        <v>78.90118628560698</v>
       </c>
       <c r="D14">
-        <v>98.9274792215494</v>
+        <v>98.92748109932866</v>
       </c>
       <c r="E14">
-        <v>0.06645308873068743</v>
+        <v>0.06645309035073022</v>
       </c>
       <c r="F14">
-        <v>78.9011536664198</v>
+        <v>78.90118628560698</v>
       </c>
       <c r="G14">
-        <v>80.98443153312141</v>
+        <v>80.98446190673197</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>80.98443153312141</v>
+        <v>80.98446190673197</v>
       </c>
       <c r="J14">
-        <v>80.98443153312141</v>
+        <v>80.98446190673197</v>
       </c>
       <c r="K14">
-        <v>99.98511281139315</v>
+        <v>99.98511284089908</v>
       </c>
       <c r="L14">
-        <v>29.88134722924086</v>
+        <v>29.8813885548688</v>
       </c>
       <c r="M14">
-        <v>99.9835246637397</v>
+        <v>99.98352469626305</v>
       </c>
       <c r="N14">
-        <v>1.664817388015564</v>
+        <v>1.664817384640678</v>
       </c>
       <c r="O14">
         <v>99.9999999230167</v>
       </c>
       <c r="P14">
-        <v>99.98511281139315</v>
+        <v>99.98511284089908</v>
       </c>
       <c r="Q14">
-        <v>99.98511281139315</v>
+        <v>99.98511284089908</v>
       </c>
       <c r="R14">
-        <v>51.04638017107412</v>
+        <v>51.04637763035889</v>
       </c>
       <c r="S14">
-        <v>98.9274792215494</v>
+        <v>98.92748109932866</v>
       </c>
       <c r="T14">
-        <v>1.664817388015564</v>
+        <v>1.664817384640678</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -6313,16 +6313,16 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>0.2571869028188608</v>
+        <v>0.2571864033509526</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.6788586684481671</v>
+        <v>0.6788573400221164</v>
       </c>
       <c r="E17">
-        <v>0.3925592131697518</v>
+        <v>0.3925584471082049</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.6788586684481671</v>
+        <v>0.6788573400221164</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -6402,16 +6402,16 @@
         <v>31</v>
       </c>
       <c r="B18">
-        <v>0.00618112786500419</v>
+        <v>0.006181115860990878</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1912370720871283</v>
+        <v>0.191236697864451</v>
       </c>
       <c r="E18">
-        <v>0.04402819026979915</v>
+        <v>0.04402810435077747</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -6453,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1912370720871283</v>
+        <v>0.191236697864451</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -6491,16 +6491,16 @@
         <v>32</v>
       </c>
       <c r="B19">
-        <v>0.0007519482737838987</v>
+        <v>0.0007519468134683566</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05233898224746662</v>
+        <v>0.05233887982781623</v>
       </c>
       <c r="E19">
-        <v>0.01110609217565286</v>
+        <v>0.01110607050261637</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -6542,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.05233898224746662</v>
+        <v>0.05233887982781623</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -6850,82 +6850,82 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2.772940152768104</v>
+        <v>2.772935820277083</v>
       </c>
       <c r="D23">
-        <v>0.01732474840214178</v>
+        <v>0.01732471450013873</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.772940152768104</v>
+        <v>2.772935820277083</v>
       </c>
       <c r="G23">
-        <v>2.846155873673445</v>
+        <v>2.846151317600743</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.846155873673445</v>
+        <v>2.846151317600743</v>
       </c>
       <c r="J23">
-        <v>2.846155873673445</v>
+        <v>2.846151317600743</v>
       </c>
       <c r="K23">
-        <v>2.130710613049527e-09</v>
+        <v>2.13070683594275e-09</v>
       </c>
       <c r="L23">
-        <v>10.5016446086286</v>
+        <v>10.50163838275698</v>
       </c>
       <c r="M23">
-        <v>2.318970371514945e-09</v>
+        <v>2.318966287239619e-09</v>
       </c>
       <c r="N23">
-        <v>14.72762381797083</v>
+        <v>14.72762376722142</v>
       </c>
       <c r="O23">
-        <v>3.659855055187575e-10</v>
+        <v>3.65984752497351e-10</v>
       </c>
       <c r="P23">
-        <v>2.130710613049527e-09</v>
+        <v>2.13070683594275e-09</v>
       </c>
       <c r="Q23">
-        <v>2.130710613049527e-09</v>
+        <v>2.13070683594275e-09</v>
       </c>
       <c r="R23">
-        <v>2.257880923879686</v>
+        <v>2.25788080829568</v>
       </c>
       <c r="S23">
-        <v>0.01732474840214178</v>
+        <v>0.01732471450013873</v>
       </c>
       <c r="T23">
-        <v>14.72762381797083</v>
+        <v>14.72762376722142</v>
       </c>
       <c r="U23">
-        <v>15.14802049284659</v>
+        <v>15.14802046503172</v>
       </c>
       <c r="V23">
-        <v>97.25291249486473</v>
+        <v>97.25291248413983</v>
       </c>
       <c r="W23">
-        <v>1.800466865128697e-05</v>
+        <v>1.800466869514396e-05</v>
       </c>
       <c r="X23">
-        <v>97.25291249486473</v>
+        <v>97.25291248413983</v>
       </c>
       <c r="Y23">
-        <v>7.313453171936475e-05</v>
+        <v>7.313453172712763e-05</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>7.313453171936475e-05</v>
+        <v>7.313453172712763e-05</v>
       </c>
       <c r="AB23">
-        <v>15.14802049284659</v>
+        <v>15.14802046503172</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -6939,85 +6939,85 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.7703064235522</v>
+        <v>3.770300549329026</v>
       </c>
       <c r="D24">
-        <v>0.004716088486386929</v>
+        <v>0.004716079278822014</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.7703064235522</v>
+        <v>3.770300549329026</v>
       </c>
       <c r="G24">
-        <v>3.869856247070333</v>
+        <v>3.869850069285536</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.869856247070333</v>
+        <v>3.869850069285536</v>
       </c>
       <c r="J24">
-        <v>3.869856247070333</v>
+        <v>3.869850069285536</v>
       </c>
       <c r="K24">
-        <v>4.965865851434754e-06</v>
+        <v>4.965856436076959e-06</v>
       </c>
       <c r="L24">
-        <v>14.27884302543103</v>
+        <v>14.27883462301246</v>
       </c>
       <c r="M24">
-        <v>5.495568194408964e-06</v>
+        <v>5.495557818176249e-06</v>
       </c>
       <c r="N24">
-        <v>20.02480911052908</v>
+        <v>20.02480912953456</v>
       </c>
       <c r="O24">
-        <v>4.976188170941491e-10</v>
+        <v>4.976177932349636e-10</v>
       </c>
       <c r="P24">
-        <v>4.965865851434754e-06</v>
+        <v>4.965856436076959e-06</v>
       </c>
       <c r="Q24">
-        <v>4.965865851434754e-06</v>
+        <v>4.965856436076959e-06</v>
       </c>
       <c r="R24">
-        <v>0.6139976829096645</v>
+        <v>0.6139976541767764</v>
       </c>
       <c r="S24">
-        <v>0.004716088486386929</v>
+        <v>0.004716079278822014</v>
       </c>
       <c r="T24">
-        <v>20.02480911052908</v>
+        <v>20.02480912953456</v>
       </c>
       <c r="U24">
-        <v>20.67921238492846</v>
+        <v>20.67921243784154</v>
       </c>
       <c r="V24">
-        <v>2.646337754962305</v>
+        <v>2.646337754670485</v>
       </c>
       <c r="W24">
-        <v>24.00620086397078</v>
+        <v>24.00620091989838</v>
       </c>
       <c r="X24">
-        <v>2.646337754962305</v>
+        <v>2.646337754670485</v>
       </c>
       <c r="Y24">
-        <v>97.51236649568052</v>
+        <v>97.51236649568051</v>
       </c>
       <c r="Z24">
-        <v>8.000001599724385e-05</v>
+        <v>8.000001599954824e-05</v>
       </c>
       <c r="AA24">
-        <v>97.51236649568052</v>
+        <v>97.51236649568051</v>
       </c>
       <c r="AB24">
-        <v>20.67921238492846</v>
+        <v>20.67921243784154</v>
       </c>
       <c r="AC24">
-        <v>8.000001599724385e-05</v>
+        <v>8.000001599954824e-05</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -7028,70 +7028,70 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11.69733040671526</v>
+        <v>11.69731214719293</v>
       </c>
       <c r="D25">
-        <v>0.01461649877892826</v>
+        <v>0.01461647019732311</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>11.69733040671526</v>
+        <v>11.69731214719293</v>
       </c>
       <c r="G25">
-        <v>12.00618253882518</v>
+        <v>12.0061633365873</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.00618253882518</v>
+        <v>12.0061633365873</v>
       </c>
       <c r="J25">
-        <v>12.00618253882518</v>
+        <v>12.0061633365873</v>
       </c>
       <c r="K25">
-        <v>0.01488222060301719</v>
+        <v>0.01488219110651838</v>
       </c>
       <c r="L25">
-        <v>44.25568490708764</v>
+        <v>44.25565873300919</v>
       </c>
       <c r="M25">
-        <v>0.01646983836910748</v>
+        <v>0.01646980585613963</v>
       </c>
       <c r="N25">
-        <v>62.06466730627141</v>
+        <v>62.06466718045493</v>
       </c>
       <c r="O25">
-        <v>7.608196127213933e-08</v>
+        <v>7.608195998548295e-08</v>
       </c>
       <c r="P25">
-        <v>0.01488222060301719</v>
+        <v>0.01488219110651838</v>
       </c>
       <c r="Q25">
-        <v>0.01488222060301719</v>
+        <v>0.01488219110651838</v>
       </c>
       <c r="R25">
         <v>0</v>
       </c>
       <c r="S25">
-        <v>0.01461649877892826</v>
+        <v>0.01461647019732311</v>
       </c>
       <c r="T25">
-        <v>62.06466730627141</v>
+        <v>62.06466718045493</v>
       </c>
       <c r="U25">
-        <v>64.15707450218805</v>
+        <v>64.15707447540099</v>
       </c>
       <c r="V25">
-        <v>3.132809791977261e-07</v>
+        <v>3.13280978188588e-07</v>
       </c>
       <c r="W25">
-        <v>75.99378113136056</v>
+        <v>75.99378107543293</v>
       </c>
       <c r="X25">
-        <v>3.132809791977261e-07</v>
+        <v>3.13280978188588e-07</v>
       </c>
       <c r="Y25">
         <v>2.487560369787771</v>
@@ -7103,7 +7103,7 @@
         <v>2.487560369787771</v>
       </c>
       <c r="AB25">
-        <v>64.15707450218805</v>
+        <v>64.15707447540099</v>
       </c>
       <c r="AC25">
         <v>99.999919999984</v>
@@ -7734,7 +7734,7 @@
     </row>
     <row r="33" spans="1:29">
       <c r="A33" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -7826,7 +7826,7 @@
         <v>46</v>
       </c>
       <c r="B34">
-        <v>0.003768406045462433</v>
+        <v>0.003768398727057552</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -7835,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.003784773650213917</v>
+        <v>0.003784766264399345</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -7915,7 +7915,7 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>0.9730250909387433</v>
+        <v>0.9730251238182445</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -7924,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0.9772513048630467</v>
+        <v>0.9772513286872374</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -8004,7 +8004,7 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <v>0.04128534340597369</v>
+        <v>0.04128534460598859</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.04146466117978735</v>
+        <v>0.04146466199473926</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -8093,7 +8093,7 @@
         <v>49</v>
       </c>
       <c r="B37">
-        <v>0.3440965652861772</v>
+        <v>0.3440964826706462</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0.3455911060837988</v>
+        <v>0.3455910198566538</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -8271,7 +8271,7 @@
         <v>51</v>
       </c>
       <c r="B39">
-        <v>0.002416785247160067</v>
+        <v>0.002416781515890355</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.00242728225444047</v>
+        <v>0.002427278484118337</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -8655,28 +8655,28 @@
         <v>142</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>149</v>
@@ -8738,16 +8738,16 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
@@ -8756,7 +8756,7 @@
         <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
         <v>55</v>
@@ -8765,49 +8765,49 @@
         <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
         <v>55</v>
       </c>
       <c r="M2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" t="s">
         <v>132</v>
       </c>
-      <c r="N2" t="s">
-        <v>159</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S2" t="s">
         <v>134</v>
       </c>
-      <c r="P2" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
+        <v>160</v>
+      </c>
+      <c r="U2" t="s">
         <v>136</v>
       </c>
-      <c r="R2" t="s">
-        <v>159</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>55</v>
       </c>
-      <c r="T2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" t="s">
-        <v>161</v>
-      </c>
       <c r="W2" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="X2" t="s">
         <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="Z2" t="s">
         <v>63</v>
@@ -8839,49 +8839,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>66</v>
       </c>
-      <c r="F3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>160</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M3" t="s">
         <v>86</v>
       </c>
-      <c r="I3" t="s">
-        <v>159</v>
-      </c>
-      <c r="J3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
+        <v>160</v>
+      </c>
+      <c r="O3" t="s">
         <v>117</v>
       </c>
-      <c r="L3" t="s">
-        <v>159</v>
-      </c>
-      <c r="M3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" t="s">
-        <v>55</v>
-      </c>
       <c r="P3" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="Q3" t="s">
         <v>55</v>
@@ -8890,25 +8890,25 @@
         <v>55</v>
       </c>
       <c r="S3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" t="s">
+        <v>159</v>
+      </c>
+      <c r="W3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" t="s">
         <v>63</v>
       </c>
-      <c r="T3" t="s">
-        <v>161</v>
-      </c>
-      <c r="U3" t="s">
-        <v>161</v>
-      </c>
-      <c r="V3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>159</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>55</v>
       </c>
       <c r="Z3" t="s">
         <v>56</v>
@@ -8958,7 +8958,7 @@
         <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
         <v>57</v>
@@ -8973,10 +8973,10 @@
         <v>57</v>
       </c>
       <c r="M4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" t="s">
         <v>57</v>
-      </c>
-      <c r="N4" t="s">
-        <v>60</v>
       </c>
       <c r="O4" t="s">
         <v>57</v>
@@ -8988,7 +8988,7 @@
         <v>57</v>
       </c>
       <c r="R4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="S4" t="s">
         <v>57</v>
@@ -9041,25 +9041,25 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>298.15</v>
+        <v>305.372</v>
       </c>
       <c r="C5">
         <v>298.15</v>
       </c>
       <c r="D5">
-        <v>300.372</v>
+        <v>298.15</v>
       </c>
       <c r="E5">
-        <v>298.15</v>
+        <v>305.372</v>
       </c>
       <c r="F5">
         <v>298.15</v>
       </c>
       <c r="G5">
+        <v>298.15</v>
+      </c>
+      <c r="H5">
         <v>300.372</v>
-      </c>
-      <c r="H5">
-        <v>320</v>
       </c>
       <c r="I5">
         <v>298.15</v>
@@ -9068,7 +9068,7 @@
         <v>298.15</v>
       </c>
       <c r="K5">
-        <v>320</v>
+        <v>300.372</v>
       </c>
       <c r="L5">
         <v>298.15</v>
@@ -9077,7 +9077,7 @@
         <v>320</v>
       </c>
       <c r="N5">
-        <v>633.15</v>
+        <v>298.15</v>
       </c>
       <c r="O5">
         <v>320</v>
@@ -9086,19 +9086,19 @@
         <v>298.15</v>
       </c>
       <c r="Q5">
+        <v>320</v>
+      </c>
+      <c r="R5">
+        <v>633.15</v>
+      </c>
+      <c r="S5">
+        <v>320</v>
+      </c>
+      <c r="T5">
+        <v>298.15</v>
+      </c>
+      <c r="U5">
         <v>325</v>
-      </c>
-      <c r="R5">
-        <v>298.15</v>
-      </c>
-      <c r="S5">
-        <v>298.15</v>
-      </c>
-      <c r="T5">
-        <v>305.372</v>
-      </c>
-      <c r="U5">
-        <v>305.372</v>
       </c>
       <c r="V5">
         <v>305.372</v>
@@ -9142,100 +9142,100 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>0.156866816994251</v>
+        <v>1088.653762086935</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>607.716760736527</v>
+        <v>1.307423418309443</v>
       </c>
       <c r="E6">
-        <v>3.697083184465339</v>
+        <v>11.97519138295628</v>
       </c>
       <c r="F6">
-        <v>1.634357396980705</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>607.716760736527</v>
+        <v>0.1568671261964328</v>
       </c>
       <c r="H6">
-        <v>4.237441938231743</v>
+        <v>607.7167607365269</v>
       </c>
       <c r="I6">
-        <v>2.377995568954032</v>
+        <v>3.697090489300553</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.364550967876426</v>
       </c>
       <c r="K6">
-        <v>93.39567117651102</v>
+        <v>607.7167607365269</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.725046940159455</v>
       </c>
       <c r="M6">
-        <v>2.649642445924948</v>
+        <v>4.237296046031567</v>
       </c>
       <c r="N6">
-        <v>11.86444647633935</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>3.535603759513668</v>
+        <v>93.39581709962337</v>
       </c>
       <c r="P6">
-        <v>1.634357396980705</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>10.82593381195254</v>
+        <v>2.649642446212206</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>8.606713720537826</v>
       </c>
       <c r="S6">
+        <v>3.535603775361993</v>
+      </c>
+      <c r="T6">
+        <v>1.364550967876426</v>
+      </c>
+      <c r="U6">
+        <v>10.82593382702133</v>
+      </c>
+      <c r="V6">
+        <v>1088.653762086935</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
         <v>71.59173361848406</v>
       </c>
-      <c r="T6">
-        <v>13.50550121649566</v>
-      </c>
-      <c r="U6">
-        <v>1227.772837863242</v>
-      </c>
-      <c r="V6">
-        <v>1227.772837863242</v>
-      </c>
-      <c r="W6">
-        <v>1.307421193141559</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
       <c r="Y6">
-        <v>13.50550121649566</v>
+        <v>11.97519138295628</v>
       </c>
       <c r="Z6">
         <v>71.59173361848406</v>
       </c>
       <c r="AA6">
-        <v>1.307421193141559</v>
+        <v>1.307423418309443</v>
       </c>
       <c r="AB6">
-        <v>3.697083184465339</v>
+        <v>3.697090489300553</v>
       </c>
       <c r="AC6">
-        <v>0.156866816994251</v>
+        <v>0.1568671261964328</v>
       </c>
       <c r="AD6">
-        <v>97.63311284348855</v>
+        <v>97.63311284348853</v>
       </c>
       <c r="AE6">
-        <v>2.649642445924948</v>
+        <v>2.649642446212206</v>
       </c>
       <c r="AF6">
-        <v>3.535603759513668</v>
+        <v>3.535603775361993</v>
       </c>
       <c r="AG6">
-        <v>10.82593381195254</v>
+        <v>10.82593382702133</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -9370,16 +9370,16 @@
         <v>0</v>
       </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>100</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -9450,55 +9450,55 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>100</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>100</v>
       </c>
-      <c r="G10">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>100</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>2.858269350544641</v>
+        <v>100</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.1007494368919804</v>
+        <v>0</v>
       </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.858265197593998</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.100749447908712</v>
+      </c>
+      <c r="R10">
         <v>45.01565840905166</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>100</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -9507,7 +9507,7 @@
         <v>100</v>
       </c>
       <c r="U10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>100</v>
@@ -9534,10 +9534,10 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>2.73421564285575</v>
+        <v>2.734215942132707</v>
       </c>
       <c r="AE10">
-        <v>0.1007494368919804</v>
+        <v>0.100749447908712</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>78.9011536664198</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>78.90118628560698</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -9938,7 +9938,7 @@
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>75.47671060216302</v>
+        <v>75.47685973187043</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -10790,31 +10790,31 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.772940152768104</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>97.25291249486473</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>7.313453171936475e-05</v>
+        <v>2.772935820277083</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>97.25291248413983</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>7.313453172712763e-05</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -10847,13 +10847,13 @@
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>2.652589876092907</v>
+        <v>2.652589876087975</v>
       </c>
       <c r="AE23">
-        <v>97.25291249486473</v>
+        <v>97.25291248413983</v>
       </c>
       <c r="AF23">
-        <v>7.313453171936475e-05</v>
+        <v>7.313453172712763e-05</v>
       </c>
       <c r="AG23">
         <v>0</v>
@@ -10891,37 +10891,37 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.7703064235522</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.646337754962305</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>97.51236649568052</v>
+        <v>3.770300549329026</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8.000001599724385e-05</v>
+        <v>2.646337754670485</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>97.51236649568051</v>
       </c>
       <c r="T24">
         <v>0</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>8.000001599954824e-05</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -10948,16 +10948,16 @@
         <v>0</v>
       </c>
       <c r="AD24">
-        <v>3.606668769572609</v>
+        <v>3.606668785417384</v>
       </c>
       <c r="AE24">
-        <v>2.646337754962305</v>
+        <v>2.646337754670485</v>
       </c>
       <c r="AF24">
-        <v>97.51236649568052</v>
+        <v>97.51236649568051</v>
       </c>
       <c r="AG24">
-        <v>8.000001599724385e-05</v>
+        <v>8.000001599954824e-05</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -10992,38 +10992,38 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.69733040671526</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.132809791977261e-07</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>11.69731214719293</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>3.13280978188588e-07</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>2.487560369787771</v>
       </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
         <v>99.999919999984</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
       <c r="V25">
         <v>0</v>
       </c>
@@ -11049,10 +11049,10 @@
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>11.18964655014012</v>
+        <v>11.18964656599387</v>
       </c>
       <c r="AE25">
-        <v>3.132809791977261e-07</v>
+        <v>3.13280978188588e-07</v>
       </c>
       <c r="AF25">
         <v>2.487560369787771</v>
@@ -11589,23 +11589,23 @@
         <v>0</v>
       </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
         <v>100</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
       <c r="N31">
         <v>0</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>0</v>
       </c>
       <c r="AD31">
-        <v>4.3401685591756</v>
+        <v>4.34001909849764</v>
       </c>
       <c r="AE31">
         <v>0</v>
@@ -11770,7 +11770,7 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -11809,19 +11809,19 @@
         <v>0</v>
       </c>
       <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
         <v>54.98434159094833</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -11925,22 +11925,22 @@
         <v>0</v>
       </c>
       <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
         <v>100</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -11984,19 +11984,19 @@
         <v>0</v>
       </c>
       <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>100</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -12076,22 +12076,22 @@
         <v>48</v>
       </c>
       <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>100</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -12183,7 +12183,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -12240,7 +12240,7 @@
         <v>0</v>
       </c>
       <c r="W37">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X37">
         <v>0</v>
